--- a/Output/Monte_Carlos.xlsx
+++ b/Output/Monte_Carlos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellepeek/Documents/GitHub/Econometrics-Project/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56BEB2-1163-1649-918B-93F1A524DA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75D0807-F1F7-C041-9AF0-E20A4C5C7CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="11440" yWindow="0" windowWidth="17360" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Strongest Instrument</t>
   </si>
@@ -108,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -139,8 +139,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,20 +457,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="15" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="16.5" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="9" customWidth="true"/>
-    <col min="10" max="10" width="19.83203125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -492,6 +492,10 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
+      <c r="L1" s="1">
+        <f>K3-K4</f>
+        <v>4.53711012410416E-2</v>
+      </c>
       <c r="N1" t="s">
         <v>21</v>
       </c>
@@ -517,7 +521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -546,7 +550,7 @@
         <v>4.6003936555776871E-2</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -571,7 +575,7 @@
         <v>4.8127554149108628E-3</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="J3:K3" si="0">(E3-1)^2 + E5^2</f>
+        <f>(E3-1)^2 + E5^2</f>
         <v>24.23123793078771</v>
       </c>
       <c r="N3" t="s">
@@ -599,7 +603,7 @@
         <v>24.23123793078771</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -642,7 +646,7 @@
         <v>24.185866829546669</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -663,11 +667,11 @@
         <v>4.7669884303261639E-5</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:K5" si="1">(D7-1)^2 +D9^2</f>
+        <f t="shared" ref="J5:K5" si="0">(D7-1)^2 +D9^2</f>
         <v>4.7715507735441925E-3</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.24664921672938306</v>
       </c>
       <c r="N5" t="s">
@@ -695,7 +699,7 @@
         <v>0.24664921672938306</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -721,7 +725,7 @@
         <v>0.78666144146420991</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -747,7 +751,7 @@
         <v>1.1489455293640489</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -760,6 +764,18 @@
       <c r="E8" s="2">
         <v>4.9178983916129848</v>
       </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.99996064651012417</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.99745608383417128</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.78666144146420991</v>
+      </c>
       <c r="N8" t="s">
         <v>9</v>
       </c>
@@ -773,7 +789,7 @@
         <v>4.9178983916129848</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -786,6 +802,18 @@
       <c r="E9" s="2">
         <v>0.47377678922868971</v>
       </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6.9045646303643998E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6.9327367651253705E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.9178983916129848</v>
+      </c>
       <c r="N9" t="s">
         <v>10</v>
       </c>
@@ -799,7 +827,7 @@
         <v>0.47377678922868971</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -812,6 +840,18 @@
       <c r="E10" s="2">
         <v>1.011926412582397</v>
       </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6.9045646303643998E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.9327367651253705E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.9178983916129848</v>
+      </c>
       <c r="N10" t="s">
         <v>11</v>
       </c>
@@ -825,7 +865,7 @@
         <v>1.011926412582397</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -837,6 +877,18 @@
       </c>
       <c r="E11" s="2">
         <v>1.2257479429245</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.000116646289825</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.001166105270386</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.011926412582397</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
